--- a/biology/Zoologie/Harzer_rotvieh/Harzer_rotvieh.xlsx
+++ b/biology/Zoologie/Harzer_rotvieh/Harzer_rotvieh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Harzer Rotvieh est une race bovine allemande.
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle serait issue de croisements entre bétail celtique venu de France et de Grande-Bretagne, bovins simmental, Tux-zillertal et Tiroler grauvieh[1]. Elle est élevée depuis très longtemps dans le massif montagneux du Harz, aux confins de la Basse-Saxe, de la Saxe-Anhalt et de la Thuringe. Elle n'est guère élevée que dans sa région d'origine où elle est mieux adaptée que des races plus productives. Les effectifs sont faibles : 380 vaches et 5 taureaux en 1996[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle serait issue de croisements entre bétail celtique venu de France et de Grande-Bretagne, bovins simmental, Tux-zillertal et Tiroler grauvieh. Elle est élevée depuis très longtemps dans le massif montagneux du Harz, aux confins de la Basse-Saxe, de la Saxe-Anhalt et de la Thuringe. Elle n'est guère élevée que dans sa région d'origine où elle est mieux adaptée que des races plus productives. Les effectifs sont faibles : 380 vaches et 5 taureaux en 1996.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle porte une robe uniformément rouge sombre. Le mufle est aussi rouge. Les cornes courtes sont tournées vers l'avant, claires à extrémité sombre. C'est une race de grande taille. La vache mesure 135 cm au garrot pour 600 kg et le taureau 150 cm pour 1 100 kg.
 </t>
@@ -574,9 +590,11 @@
           <t>Qualités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une race mixte qui donne un lait riche : 5 % de matière grasse et 3,8 % de protéines[2]. Elle est rustique et valorise bien le fourrage de son terroir.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une race mixte qui donne un lait riche : 5 % de matière grasse et 3,8 % de protéines. Elle est rustique et valorise bien le fourrage de son terroir.
 </t>
         </is>
       </c>
